--- a/Gimnasio PowerGym/JavaBooks.xlsx
+++ b/Gimnasio PowerGym/JavaBooks.xlsx
@@ -80,53 +80,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E5"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>35.0</v>
       </c>
     </row>
